--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frede\Desktop\Mestrado\Verificação e Validação de Software\vvs_2324_assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2F86A66-1824-41C8-B850-48ABB8ACACA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF0FF9B-EE06-435D-962A-04DA2BF3A9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F9D7C08-C461-4BDB-AD69-3CC85B7B7B95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Test Case</t>
   </si>
@@ -68,16 +68,66 @@
     <t>no</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
-    <t>[4:[5]], [4:[5]]</t>
-  </si>
-  <si>
-    <t>L1,</t>
+    <t>T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[39,10,22,34,55]
+[1,2,3]
+</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>[1,2,3]
+[1,2,3]</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>[], 3 Capacity
+[], 6 Capacity</t>
+  </si>
+  <si>
+    <t>NPE</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>B1!,B2,B3!,
+B4,B5,B6</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,7,
+8,9,10</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,
+7,8,9,11,12</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,
+7,8,9</t>
+  </si>
+  <si>
+    <t>B1!,B2,B3!,
+B4,B5,B6!,B7</t>
+  </si>
+  <si>
+    <t>B1!,B2,B3!,
+B4,B5,NPE-B6</t>
+  </si>
+  <si>
+    <t>null,
+[1,2,3]</t>
+  </si>
+  <si>
+    <t>T5</t>
   </si>
 </sst>
 </file>
@@ -107,30 +157,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -139,16 +169,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33542FD-06D6-4612-B725-39F18BB506C8}">
-  <dimension ref="F4:L6"/>
+  <dimension ref="F4:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,71 +551,146 @@
     <col min="8" max="8" width="15.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" customWidth="1"/>
     <col min="12" max="12" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="1" t="b">
+      <c r="H5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="b">
+      <c r="I5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="1" t="s">
+    </row>
+    <row r="6" spans="6:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="b">
+    <row r="7" spans="6:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="I6" t="b">
+      <c r="I7" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K6" t="s">
-        <v>13</v>
+      <c r="K7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="6:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="6:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frede\Desktop\Mestrado\Verificação e Validação de Software\vvs_2324_assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF0FF9B-EE06-435D-962A-04DA2BF3A9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7EFFE4-ECAE-4D31-856E-2A0AEE3B5C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F9D7C08-C461-4BDB-AD69-3CC85B7B7B95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Test Case</t>
   </si>
@@ -128,6 +128,54 @@
   </si>
   <si>
     <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>[1,2,3][1,2,3]
+ Same Object</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,3,4</t>
+  </si>
+  <si>
+    <t>B1!,B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1:[2][3:[12:[13][34]][49:[55:[67]][77]]]]
+Input: 34
+</t>
+  </si>
+  <si>
+    <t>B1!,B2!,B3!,B4,B5
+B6,B7,B8</t>
+  </si>
+  <si>
+    <t>1,3,5,8,9,10,
+11,12,13,14,15,
+16,17,18,19,20,
+21</t>
+  </si>
+  <si>
+    <t>[1:[2][3]]
+Input: 1</t>
+  </si>
+  <si>
+    <t>[], Input: 1</t>
+  </si>
+  <si>
+    <t>[1]
+Input: 1</t>
+  </si>
+  <si>
+    <t>1,3,5,6</t>
+  </si>
+  <si>
+    <t>B1!,B2!,B3</t>
   </si>
 </sst>
 </file>
@@ -169,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,29 +228,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,16 +574,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33542FD-06D6-4612-B725-39F18BB506C8}">
-  <dimension ref="F4:L9"/>
+  <dimension ref="F4:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="7" max="7" width="32.21875" customWidth="1"/>
     <col min="8" max="8" width="15.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="16.109375" customWidth="1"/>
@@ -556,125 +592,125 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="6:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="6" t="b">
+      <c r="H6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="6" t="b">
+      <c r="I6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="6:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="H7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="6:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="6:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="2" t="b">
@@ -683,7 +719,7 @@
       <c r="I9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="2">
@@ -691,6 +727,147 @@
       </c>
       <c r="L9" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="6:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="28" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="6:12" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="6:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="6:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frede\Desktop\Mestrado\Verificação e Validação de Software\vvs_2324_assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7EFFE4-ECAE-4D31-856E-2A0AEE3B5C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF6AE86-2A8F-4369-9F0E-6F5E6A280DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F9D7C08-C461-4BDB-AD69-3CC85B7B7B95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
   <si>
     <t>Test Case</t>
   </si>
@@ -155,34 +155,395 @@
 B6,B7,B8</t>
   </si>
   <si>
-    <t>1,3,5,8,9,10,
+    <t>[1:[2][3]]
+Input: 1</t>
+  </si>
+  <si>
+    <t>1,3,5,6</t>
+  </si>
+  <si>
+    <t>B1!,B2!,B3</t>
+  </si>
+  <si>
+    <t>[], Input: 2</t>
+  </si>
+  <si>
+    <t>[1]
+Input: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1:[2][3:[12][13][34]][49:[55][67][77]]]
+Input: 78
+</t>
+  </si>
+  <si>
+    <t>B1!,B2!,B3,B4,B5!,B6!,B7,B8</t>
+  </si>
+  <si>
+    <t>1,3,5,6,7,8,9,10,
+11,12,15,17,18,
+19,20,21</t>
+  </si>
+  <si>
+    <t>1,3,5,8,7,9,10,
 11,12,13,14,15,
 16,17,18,19,20,
 21</t>
   </si>
   <si>
+    <t xml:space="preserve">[1:[2:[13]][34][55:[67][77]]]
+Input: null
+</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>B1!, NPE-B2</t>
+  </si>
+  <si>
+    <t>Test Path</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>equals</t>
+  </si>
+  <si>
+    <t>Edge-Pair</t>
+  </si>
+  <si>
+    <t>Nodes Coverage</t>
+  </si>
+  <si>
+    <t>Edges Coverage</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>[1:[2][4]]
+[1:[2][3]]</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,7,8,9,10</t>
+  </si>
+  <si>
+    <t>[1,2,3,5,6,7,8,9,8,9,8,9,10]</t>
+  </si>
+  <si>
     <t>[1:[2][3]]
-Input: 1</t>
-  </si>
-  <si>
-    <t>[], Input: 1</t>
-  </si>
-  <si>
-    <t>[1]
-Input: 1</t>
-  </si>
-  <si>
-    <t>1,3,5,6</t>
-  </si>
-  <si>
-    <t>B1!,B2!,B3</t>
+[1:[2][3][4]]</t>
+  </si>
+  <si>
+    <t>[1,2,3,5,6,7,8,9,8,9,8,9,8,11,13]</t>
+  </si>
+  <si>
+    <t>[1,2],[2,3],[3,5],
+[5,6],[6,7],[7,8],
+[8,9],[9,8],[9,10]</t>
+  </si>
+  <si>
+    <t>[1,2],[2,3],[3,5],
+[5,6],[6,7],[7,8],
+[8,9],[8,11],[9,8],
+[8,11],[11,13]</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,7,8,9,11,13</t>
+  </si>
+  <si>
+    <t>[1:[2][3]]
+[1:[2][3]]</t>
+  </si>
+  <si>
+    <t>[1,2,3,5,6,7,8,9,8,9,8,9,8,11,12]</t>
+  </si>
+  <si>
+    <t>[1,2],[2,3],[3,5],
+[5,6],[6,7],[7,8],
+[8,9],[8,11],[9,8],
+[8,11],[11,12]</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,7,8,9,11,12</t>
+  </si>
+  <si>
+    <t>Requirements Covered</t>
+  </si>
+  <si>
+    <t>[1,2,3],[2,3,5],[3,5,6],
+[5,6,7],[6,7,8],[7,8,9],[8,9,10]</t>
+  </si>
+  <si>
+    <t>[1,2,3],[2,3,5],[3,5,6],
+[5,6,7],[6,7,8],[7,8,9],[9,8,11],
+[8,11,13]</t>
+  </si>
+  <si>
+    <t>[1,2,3],[2,3,5],[3,5,6],
+[5,6,7],[6,7,8],[7,8,9],[9,8,11],
+[8,11,12]</t>
+  </si>
+  <si>
+    <t>Logic-Based</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: c1 || (c2 &amp;&amp; c3), 
+where c1: this == other; 
+c2: other instanceof Ntree;
+c3: equalTrees(this, ((NTree&lt;T&gt;) other))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: c4, where c4: one == other</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: c5 &amp;&amp; c6, 
+where c5:  one != null;
+c6, where c6: other != null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: c7 &amp;&amp; c8,
+ where c7: it1.hasNext();
+where c8: it2.hasNext();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: c10 &amp;&amp; c11,
+ where c10: !it1.hasNext();
+where c11: !it2.hasNext();</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicates </t>
+  </si>
+  <si>
+    <t>Predicate</t>
+  </si>
+  <si>
+    <t>R(P)</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>[1:[2][3:[4][5]][6:[7][23][32]]]
+[1:[2][3:[4:[5][6]][7:[23][32]]]]</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P2 can never be true</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>R(P1) &amp;&amp; !c1 &amp;&amp; !c2</t>
+  </si>
+  <si>
+    <t>R(P2)  &amp;&amp; !P2</t>
+  </si>
+  <si>
+    <t>[1:[2][3:[4][5]][6:[7][23][32]]]
+[1:[2][3:[5][6:[7][8:[45]]]]]</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>!P3</t>
+  </si>
+  <si>
+    <t>P3 can never be false</t>
+  </si>
+  <si>
+    <t>R(P3) &amp;&amp; P3</t>
+  </si>
+  <si>
+    <t>[1:[2][3:[4][5]][6:[7][23][32]]]
+[1:[2:[6][7]][45]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: c9, where c9: !it1.next().equals(it2.next())</t>
+    </r>
+  </si>
+  <si>
+    <t>[1:[4:[5][6]][7:[23]][31]]
+[1:[12]]</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>R(P4) &amp;&amp; P4</t>
+  </si>
+  <si>
+    <t>Test Case Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case </t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>R(P4) &amp;&amp; !P5 &amp;&amp; !P4</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>[12:[13][55:[66]][122]]
+[12:[13][55:[66]][122]]</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>!P6</t>
+  </si>
+  <si>
+    <t>[4:[9][10][22]]
+[4:[9][10][22:[99]]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +551,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +570,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,12 +627,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -258,7 +662,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -574,23 +978,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33542FD-06D6-4612-B725-39F18BB506C8}">
-  <dimension ref="F4:L32"/>
+  <dimension ref="F3:AC87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="J52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="32.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" customWidth="1"/>
-    <col min="12" max="12" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1"/>
+    <col min="11" max="11" width="27.21875" customWidth="1"/>
+    <col min="12" max="12" width="25.77734375" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="14" max="14" width="60" customWidth="1"/>
+    <col min="15" max="15" width="36.21875" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" customWidth="1"/>
+    <col min="17" max="17" width="38.6640625" customWidth="1"/>
+    <col min="18" max="18" width="33.5546875" customWidth="1"/>
+    <col min="19" max="19" width="24.77734375" customWidth="1"/>
+    <col min="20" max="20" width="20.88671875" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" customWidth="1"/>
+    <col min="22" max="22" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="4" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F4" s="5" t="s">
         <v>0</v>
@@ -624,17 +1043,17 @@
       <c r="H5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="6:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -755,6 +1174,11 @@
     <row r="11" spans="6:12" x14ac:dyDescent="0.3">
       <c r="L11" s="2"/>
     </row>
+    <row r="27" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="28" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F28" s="5" t="s">
         <v>0</v>
@@ -783,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H29" s="1" t="b">
         <v>0</v>
@@ -806,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30" s="2" t="b">
         <v>1</v>
@@ -829,22 +1253,22 @@
         <v>13</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H31" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="6:12" ht="57.6" x14ac:dyDescent="0.3">
@@ -864,11 +1288,512 @@
         <v>9</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="33" spans="6:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="6:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="6:12" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F55" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="6:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="6:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="6:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="11:23" x14ac:dyDescent="0.3">
+      <c r="N65" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="11:23" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N66" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="11:23" x14ac:dyDescent="0.3">
+      <c r="N67" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="11:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N68" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="11:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N69" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="11:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N70" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="11:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N71" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="11:23" x14ac:dyDescent="0.3">
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="11:23" x14ac:dyDescent="0.3">
+      <c r="K73" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="11:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="11:23" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K75" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="11:23" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="11:23" x14ac:dyDescent="0.3">
+      <c r="N77" s="1"/>
+      <c r="Q77" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="S77" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T77" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U77" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="V77" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="11:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R78" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U78" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="V78" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W78" s="2"/>
+    </row>
+    <row r="79" spans="11:23" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+    </row>
+    <row r="80" spans="11:23" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R80" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U80" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V80" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="14:29" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="Q81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="AC81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="14:29" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q82" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R82" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U82" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V82" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="14:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R83" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U83" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V83" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="14:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R84" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U84" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="V84" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="14:29" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q85" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R85" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U85" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V85" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="14:29" x14ac:dyDescent="0.3">
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+    </row>
+    <row r="87" spans="14:29" x14ac:dyDescent="0.3">
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frede\Desktop\Mestrado\Verificação e Validação de Software\vvs_2324_assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF6AE86-2A8F-4369-9F0E-6F5E6A280DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C0C41D-5CA2-41C3-AD43-D1853C906852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F9D7C08-C461-4BDB-AD69-3CC85B7B7B95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="128">
   <si>
     <t>Test Case</t>
   </si>
@@ -538,6 +538,94 @@
     <t>[4:[9][10][22]]
 [4:[9][10][22:[99]]]</t>
   </si>
+  <si>
+    <t>Logic based</t>
+  </si>
+  <si>
+    <t>Base Choice Coverage</t>
+  </si>
+  <si>
+    <t>Partições Possíveis</t>
+  </si>
+  <si>
+    <t>Base Choice</t>
+  </si>
+  <si>
+    <t>[Tree1Empty, Tree1NotEmpty]
+[Tree2Empty, Tree2NotEmpty]
+[Tree2Null, Tree2NotNull]
+[Empty, Partial, Full]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Tree1NotEmpty,
+Tree2NotEmpty,
+Tree2NotNull,
+Empty]
+</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>[Tree1NotEmpty, Tree2NotEmpty,
+ Tree2NotNull, 
+Empty]</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>[66:[123:[144:[169]][233]][599]]
+[5:[12:[13]][50][400:[976]]]</t>
+  </si>
+  <si>
+    <t>[Tree1NotEmpty, 
+Tree2Empty,
+ Tree2NotNull, 
+Empty]</t>
+  </si>
+  <si>
+    <t>[11:[22:[66][144]][455:[638]]]
+[]</t>
+  </si>
+  <si>
+    <t>[Tree1Empty, 
+Tree2Empty,
+ Tree2NotNull, 
+Empty]</t>
+  </si>
+  <si>
+    <t>[]
+[]</t>
+  </si>
+  <si>
+    <t>[Tree1NotEmpty, Tree2NotEmpty,
+ Tree2NotNull, 
+Partial]</t>
+  </si>
+  <si>
+    <t>[5:[123:[144:[169]][233]][599]]
+[5:[12:[50]][144:[169]][599]]</t>
+  </si>
+  <si>
+    <t>[Tree1NotEmpty, Tree2NotEmpty,
+ Tree2NotNull, 
+Full]</t>
+  </si>
+  <si>
+    <t>[5:[12:[33][50]][144][169]]
+[5:[12][33][50][144][169]]</t>
+  </si>
+  <si>
+    <t>[Tree1Empty, 
+Tree2NotEmpty,
+ Tree2NotNull, 
+Full]</t>
+  </si>
+  <si>
+    <t>[]
+[5:[12][33][50][144][169]]</t>
+  </si>
 </sst>
 </file>
 
@@ -560,7 +648,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +679,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -604,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -637,6 +731,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -978,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33542FD-06D6-4612-B725-39F18BB506C8}">
-  <dimension ref="F3:AC87"/>
+  <dimension ref="F3:AC107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O80" sqref="O80"/>
+    <sheetView tabSelected="1" topLeftCell="O92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W100" sqref="W100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,7 +1099,7 @@
     <col min="16" max="16" width="4.109375" customWidth="1"/>
     <col min="17" max="17" width="38.6640625" customWidth="1"/>
     <col min="18" max="18" width="33.5546875" customWidth="1"/>
-    <col min="19" max="19" width="24.77734375" customWidth="1"/>
+    <col min="19" max="19" width="25.5546875" customWidth="1"/>
     <col min="20" max="20" width="20.88671875" customWidth="1"/>
     <col min="21" max="21" width="15.5546875" customWidth="1"/>
     <col min="22" max="22" width="11.77734375" customWidth="1"/>
@@ -1607,6 +1707,9 @@
         <v>63</v>
       </c>
       <c r="N76" s="1"/>
+      <c r="Q76" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="77" spans="11:23" x14ac:dyDescent="0.3">
       <c r="N77" s="1"/>
@@ -1795,6 +1898,188 @@
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
     </row>
+    <row r="89" spans="14:29" x14ac:dyDescent="0.3">
+      <c r="Q89" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="14:29" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q90" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="R90" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="14:29" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q91" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="R91" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="14:29" x14ac:dyDescent="0.3">
+      <c r="R93" s="9"/>
+    </row>
+    <row r="94" spans="14:29" x14ac:dyDescent="0.3">
+      <c r="Q94" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="R94" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="S94" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="T94" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="U94" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="14:29" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R95" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="S95" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U95" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="14:29" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R96" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="S96" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U96" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="17:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Q97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R97" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="S97" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="17:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Q98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R98" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="S98" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U98" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="17:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Q99" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R99" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="S99" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="T99" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U99" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="17:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Q100" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R100" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S100" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="T100" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U100" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+    </row>
+    <row r="102" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+    </row>
+    <row r="103" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+    </row>
+    <row r="104" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+    </row>
+    <row r="105" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+    </row>
+    <row r="106" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q106" s="2"/>
+      <c r="S106" s="2"/>
+    </row>
+    <row r="107" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="S107" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
